--- a/3 提主题辅助程序汇总/3.2/v3.2/search_web.xlsx
+++ b/3 提主题辅助程序汇总/3.2/v3.2/search_web.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GiHub\Maldives\3 提主题辅助程序汇总\3.2\v3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Maldives\3 提主题辅助程序汇总\3.2\v3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD677799-9F1C-49DA-87E8-A439E648014C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="search_web" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>txt</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -29,355 +30,538 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=UD2KB80&amp;id=1</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=UD3KB80&amp;id=2</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=UD4KB80&amp;id=3</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=UD6KBA80&amp;id=4</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=UD8KBA80&amp;id=5</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D2SBA60&amp;id=10</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D2SB60&amp;id=11</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D2SB60A&amp;id=12</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D6JBB60V&amp;id=13</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D6JBB80V&amp;id=14</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D8JBB60V&amp;id=15</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D8JBB80V&amp;id=16</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D10JBB60V&amp;id=17</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D10JBB80V&amp;id=18</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D3SBA60&amp;id=19</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D3SB60&amp;id=20</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D3SB80&amp;id=21</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D4SB80&amp;id=22</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D4SB60L&amp;id=23</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=LN4SB60&amp;id=24</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D10XB60&amp;id=25</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D10XB80&amp;id=26</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D10XB60H&amp;id=27</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D15JAB60V&amp;id=28</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D15JAB80V&amp;id=29</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D25JAB60V&amp;id=30</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D25JAB80V&amp;id=31</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D5SBA60&amp;id=32</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D5SB60&amp;id=33</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D5SB80&amp;id=34</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D6SB80&amp;id=35</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D6SB60L&amp;id=36</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=LN6SB60&amp;id=37</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D15XB60&amp;id=38</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D15XB80&amp;id=39</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D15XB100&amp;id=40</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D15XB60H&amp;id=41</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=LN15XB60&amp;id=42</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=LN15XB60H&amp;id=43</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=LL15XB60&amp;id=44</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D20XB60&amp;id=45</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D20XB80&amp;id=46</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D25XB60&amp;id=47</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D25XB80&amp;id=48</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D25XB100&amp;id=49</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=LN25XB60&amp;id=50</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=LL25XB60&amp;id=51</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D50XB80&amp;id=52</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1ZB60&amp;id=53</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1ZB80&amp;id=54</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D1UBA80&amp;id=55</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1NB60&amp;id=56</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1NB80&amp;id=57</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1NBB80&amp;id=58</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1NBC60&amp;id=59</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1NBC80&amp;id=60</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1WB(A)60&amp;id=61</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1WB(A)80&amp;id=62</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1WB(A)60B&amp;id=63</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=LN1WBA60&amp;id=64</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1ZB60&amp;id=66</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1ZB80&amp;id=67</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1NB60&amp;id=68</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1NB80&amp;id=69</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1NBB80&amp;id=70</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1NBC60&amp;id=71</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1NBC80&amp;id=72</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1WB(A)60&amp;id=73</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1WB(A)80&amp;id=74</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S1WB(A)60B&amp;id=75</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=LN1WBA60&amp;id=76</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S2VB60&amp;id=77</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S3WB60&amp;id=78</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S4VB60&amp;id=79</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S5VB60&amp;id=80</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S10VB60&amp;id=81</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S10WB60&amp;id=82</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S15VB60&amp;id=83</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S15WB60&amp;id=84</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S20WB60&amp;id=85</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S20WB80&amp;id=86</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S25VB60&amp;id=87</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S25VB80&amp;id=88</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S50VB60&amp;id=89</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S50VB80&amp;id=90</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S10VT60&amp;id=91</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S10VT80&amp;id=92</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S15VT60&amp;id=93</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S15VT80&amp;id=94</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S20VT60&amp;id=95</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S20VT80&amp;id=96</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S30VT60&amp;id=97</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S30VT80&amp;id=98</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S10VTA60&amp;id=99</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S10VTA80&amp;id=100</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S15VTA60&amp;id=101</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S15VTA80&amp;id=102</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S20VTA60&amp;id=103</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S20VTA80&amp;id=104</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S30VTA60&amp;id=105</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S30VTA80&amp;id=106</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S30VTA160&amp;id=107</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D30XT80&amp;id=108</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D45XT80&amp;id=109</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D45XT160&amp;id=110</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D50JCB80V&amp;id=111</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D45JCT120V&amp;id=112</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D30JCT120V&amp;id=113</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S30VT160&amp;id=114</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D45JCT160V&amp;id=115</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D75JFT80V&amp;id=116</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S2WB(A)80&amp;id=117</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=S2WB(A)80&amp;id=118</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D100JHT80V&amp;id=119</t>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=03&amp;product_id=D100JHT120V&amp;id=120</t>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D5FY4R5ST&amp;id=1</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D10FY4R5ST&amp;id=2</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D15FY4R5ST&amp;id=3</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D5FY6ST&amp;id=4</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D10FY6ST&amp;id=5</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D15FY6ST&amp;id=6</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D5FY10ST&amp;id=7</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D10FY10ST&amp;id=8</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D15FY10ST&amp;id=9</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D5FY15ST&amp;id=10</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D10FY15ST&amp;id=11</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D15FY15ST&amp;id=12</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D15FR4ST&amp;id=13</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D20FR4ST&amp;id=14</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D6FEC4ST&amp;id=15</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FT4A&amp;id=16</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FT6A&amp;id=17</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FT4&amp;id=18</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FT10&amp;id=19</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FT15A&amp;id=20</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S40T15V&amp;id=21</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D10FDC10ST&amp;id=22</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D20FDC10ST&amp;id=23</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D20FDC15ST&amp;id=24</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D30FDC4S&amp;id=25</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D30FDC10ST&amp;id=26</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D30FDC15ST&amp;id=27</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D40FDC10ST&amp;id=28</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D40FDC15ST&amp;id=29</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FT6&amp;id=31</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1M3&amp;id=32</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1H3&amp;id=33</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1S4&amp;id=34</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1S6&amp;id=35</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1J10A&amp;id=36</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1N15A&amp;id=37</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1M3A&amp;id=38</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1H3A&amp;id=39</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1S6A&amp;id=40</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=M1FS6&amp;id=41</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=M1FP3&amp;id=42</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=M1FS4&amp;id=43</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=M1FH3&amp;id=44</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=M1FJ4&amp;id=45</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=M1FM3&amp;id=46</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FJ10&amp;id=47</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FS4&amp;id=48</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FS6&amp;id=49</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FS4A&amp;id=50</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FP3&amp;id=51</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FJ4&amp;id=52</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FJ8&amp;id=53</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FS6A&amp;id=54</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FH3&amp;id=55</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FJ8A&amp;id=56</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FT10A&amp;id=57</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FM3&amp;id=58</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D3CE4S&amp;id=59</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D3CE6S&amp;id=60</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D3CE15ST&amp;id=61</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=M2FH3&amp;id=62</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=M2FM3&amp;id=63</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D2FS6&amp;id=64</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D2FS4&amp;id=65</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D3FS4A&amp;id=66</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D3FP3&amp;id=67</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D3FS6&amp;id=68</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D3FJ10&amp;id=69</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE3S4M&amp;id=70</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE3S6M&amp;id=71</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE5S4M&amp;id=72</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE5S6M&amp;id=73</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE10P3&amp;id=74</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE10S3L&amp;id=75</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG5S4M&amp;id=76</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG5S6M&amp;id=77</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG5S9M&amp;id=78</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S90T15V&amp;id=79</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1NS4&amp;id=80</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1NS6&amp;id=81</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D2S4M&amp;id=82</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D2S6M&amp;id=83</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D3S4M&amp;id=84</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D3S6M&amp;id=85</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE5PC3&amp;id=86</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE5SC3ML&amp;id=87</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE5SC4M&amp;id=88</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE5SC6M&amp;id=89</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE10PC3&amp;id=90</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE10SC3L&amp;id=91</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE10SC4&amp;id=92</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D6FEC10ST&amp;id=93</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D6FEC12ST&amp;id=94</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D6FEC15ST&amp;id=95</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF10SC4M&amp;id=96</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF10SC6&amp;id=97</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF10SC9&amp;id=98</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF10NC15&amp;id=99</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF15SC4M&amp;id=100</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF15JC10&amp;id=101</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF15NC15&amp;id=102</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF20PC3M&amp;id=103</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF20SC4M&amp;id=104</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF20SC9M&amp;id=105</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF20JC10&amp;id=106</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF20NC15&amp;id=107</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF25SC6M&amp;id=108</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF30PC3M&amp;id=109</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF30SC3ML&amp;id=110</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF30JC4&amp;id=111</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF30SC4M&amp;id=112</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF30JC6&amp;id=113</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF30JC10&amp;id=114</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF30NC15&amp;id=115</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF40PC3&amp;id=116</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF40SC3L&amp;id=117</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF40SC4&amp;id=118</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG8SC4M&amp;id=119</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG10SC3LM&amp;id=120</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG10SC4M&amp;id=121</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG10SC6M&amp;id=122</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG10SC9M&amp;id=123</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG10TC15M&amp;id=124</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG15SC4M&amp;id=125</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG15SC6M&amp;id=126</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20SC3LM&amp;id=127</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20SC4M&amp;id=128</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20JC6M&amp;id=129</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20SC6M&amp;id=130</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20SC9M&amp;id=131</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20TC10M&amp;id=132</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20TC12M&amp;id=133</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20TC15M&amp;id=134</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30SC3LM&amp;id=135</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30SC4M&amp;id=136</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30JC6M&amp;id=137</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30SC6M&amp;id=138</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30TC10M&amp;id=139</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30TC12M&amp;id=140</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30TC15M&amp;id=141</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG40TC10M&amp;id=142</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG40TC12M&amp;id=144</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S20SC9MT&amp;id=145</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S30SC4MT&amp;id=146</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S30SC6MT&amp;id=147</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S30TC15T&amp;id=148</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S40HC1R5T&amp;id=149</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S60HC1R5T&amp;id=150</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S60HC3T&amp;id=151</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S60SC3LT&amp;id=152</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S60SC4MT&amp;id=153</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S60SC6MT&amp;id=154</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S60JC10V&amp;id=155</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D25SC6M&amp;id=156</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D30SC4M&amp;id=157</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D25SC6MR&amp;id=158</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S1ZAS4&amp;id=159</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D120SC4M&amp;id=160</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D120SC6M&amp;id=161</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D180SC4M&amp;id=162</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D180SC6M&amp;id=163</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D240SC4M&amp;id=164</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D240SC6M&amp;id=165</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D360SC4M&amp;id=166</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D360SC6M&amp;id=167</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D4SBS4&amp;id=168</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D4SBS6&amp;id=169</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D4SBN20&amp;id=170</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D10SBS4&amp;id=171</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D15XBS6&amp;id=172</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D6SBN20&amp;id=173</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D15XBN20&amp;id=174</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D20XBS6&amp;id=175</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D30XBN20&amp;id=176</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D20SC9M&amp;id=178</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D5CE4S&amp;id=179</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1322,16 +1506,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:B116"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115:B177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1339,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1347,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +1539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1363,7 +1547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1379,7 +1563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1387,7 +1571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1403,7 +1587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1411,7 +1595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1419,7 +1603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1427,7 +1611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1443,7 +1627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1451,7 +1635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1459,7 +1643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1467,7 +1651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1475,7 +1659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1483,7 +1667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1491,7 +1675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1499,7 +1683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1507,7 +1691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1515,7 +1699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1523,7 +1707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1531,7 +1715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1539,7 +1723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1547,7 +1731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1555,7 +1739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1563,7 +1747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1571,7 +1755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +1763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1587,7 +1771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1595,7 +1779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1603,7 +1787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1611,7 +1795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1619,7 +1803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1627,7 +1811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1635,7 +1819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1643,7 +1827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1651,7 +1835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1659,7 +1843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1667,7 +1851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1675,7 +1859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1683,7 +1867,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1691,7 +1875,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1699,7 +1883,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1707,7 +1891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1715,7 +1899,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1723,7 +1907,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1731,7 +1915,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1739,7 +1923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1747,7 +1931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1755,7 +1939,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1763,7 +1947,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1771,7 +1955,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1779,7 +1963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1787,7 +1971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1795,7 +1979,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1803,7 +1987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1811,7 +1995,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1819,7 +2003,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1827,7 +2011,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1835,7 +2019,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1843,7 +2027,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1851,7 +2035,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1859,7 +2043,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1867,7 +2051,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1875,7 +2059,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1883,7 +2067,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1891,7 +2075,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1899,7 +2083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1907,7 +2091,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -1915,7 +2099,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -1923,7 +2107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -1931,7 +2115,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1939,7 +2123,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1947,7 +2131,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1955,7 +2139,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1963,7 +2147,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1971,7 +2155,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1979,7 +2163,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -1987,7 +2171,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -1995,7 +2179,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2003,7 +2187,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2011,7 +2195,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2019,7 +2203,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2027,7 +2211,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2035,7 +2219,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2043,7 +2227,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2051,7 +2235,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2059,7 +2243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2067,7 +2251,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2075,7 +2259,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2083,7 +2267,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2091,7 +2275,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2099,7 +2283,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2107,7 +2291,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2115,7 +2299,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2123,7 +2307,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2131,7 +2315,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2139,7 +2323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2147,7 +2331,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2155,7 +2339,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2163,7 +2347,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2171,7 +2355,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2179,7 +2363,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2187,7 +2371,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2195,7 +2379,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2203,7 +2387,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2211,7 +2395,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2219,7 +2403,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2227,7 +2411,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2235,7 +2419,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2243,7 +2427,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2251,12 +2435,500 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
       <c r="B116">
         <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
